--- a/formato-reporte-aribo.xlsx
+++ b/formato-reporte-aribo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaute\OneDrive\Desktop\appg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\Ship Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095D14A4-4169-4EE7-B926-48ABBB12D1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRIVAL" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t xml:space="preserve"> STATEMENT OF FACTS </t>
   </si>
@@ -130,15 +131,9 @@
     <t xml:space="preserve"> G              M</t>
   </si>
   <si>
-    <t xml:space="preserve"> GUATEMALA MARITIMA, S. A.</t>
-  </si>
-  <si>
     <t>End of sea passage</t>
   </si>
   <si>
-    <t>GUATEMALA MARITIMA,S.A.</t>
-  </si>
-  <si>
     <t>Commenced unloading</t>
   </si>
   <si>
@@ -176,12 +171,21 @@
   </si>
   <si>
     <t xml:space="preserve">Master M/V </t>
+  </si>
+  <si>
+    <t>Naviera.S.A</t>
+  </si>
+  <si>
+    <t>Naviera, S. A.</t>
+  </si>
+  <si>
+    <t>Naviera,S.A.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,14 +288,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -304,16 +307,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,53 +320,35 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -732,7 +710,7 @@
         <xdr:cNvPr id="2" name="Elipse 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,7 +768,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -840,7 +818,7 @@
         <xdr:cNvPr id="10" name="Conector recto 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +868,7 @@
         <xdr:cNvPr id="11" name="Conector recto 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,7 +918,7 @@
         <xdr:cNvPr id="12" name="Conector recto 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -990,7 +968,7 @@
         <xdr:cNvPr id="13" name="Conector recto 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,7 +1018,7 @@
         <xdr:cNvPr id="14" name="Conector recto 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,7 +1068,7 @@
         <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1118,7 @@
         <xdr:cNvPr id="17" name="Conector recto 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1168,7 @@
         <xdr:cNvPr id="18" name="Conector recto 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1218,7 @@
         <xdr:cNvPr id="19" name="Conector recto 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1268,7 @@
         <xdr:cNvPr id="20" name="Conector recto 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,676 +1565,623 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:S58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D2:Q55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="D41" sqref="D41:F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="3" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="4:16" ht="19.8" x14ac:dyDescent="0.45">
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="4:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="F3" s="42" t="s">
+      <c r="F2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="4:16" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="F3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D5" s="8" t="s">
+    <row r="5" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="O5" s="29"/>
+      <c r="O5" s="22"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+    <row r="6" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="O6" s="29"/>
+      <c r="O6" s="22"/>
       <c r="P6"/>
     </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="33"/>
-    </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D8" s="7" t="s">
+    <row r="7" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="14">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="12">
         <v>2022</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-    </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="11" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="13" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-    </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="L9" s="2"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-    </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D11" s="6" t="s">
+      <c r="L10" s="6"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="23"/>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="18"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-    </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D12" s="6" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="13"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="24"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="17"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="33"/>
-    </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D13" s="6" t="s">
+      <c r="K12" s="15"/>
+      <c r="L12" s="13"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="24"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="17"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="33"/>
-    </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D14" s="6" t="s">
+      <c r="K13" s="15"/>
+      <c r="L13" s="13"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="24"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="17"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="33"/>
-    </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D15" s="6" t="s">
+      <c r="K14" s="15"/>
+      <c r="L14" s="13"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="4:16" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="24"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="17"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
-    </row>
-    <row r="16" spans="4:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="6" t="s">
+      <c r="K15" s="15"/>
+      <c r="L15" s="13"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="4:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="24"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="17"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="33"/>
-    </row>
-    <row r="17" spans="4:19" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="6" t="s">
+      <c r="K16" s="15"/>
+      <c r="L16" s="13"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="4:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="25" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="O17" s="29"/>
+      <c r="L17" s="13"/>
+      <c r="O17" s="22"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D18" s="6" t="s">
+    <row r="18" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="25" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D19" s="6" t="s">
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="25" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D20" s="6" t="s">
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="25" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D21" s="6" t="s">
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="25" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="25" t="s">
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-    </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="25"/>
+      <c r="L22" s="13"/>
+      <c r="P22" s="22"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="17"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-    </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D24" s="6" t="s">
+      <c r="K23" s="16"/>
+      <c r="L23" s="13"/>
+      <c r="P23" s="22"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="25"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="17"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-    </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="25"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="13"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+    </row>
+    <row r="25" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="17"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-    </row>
-    <row r="26" spans="4:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="6" t="s">
+      <c r="K25" s="16"/>
+      <c r="L25" s="13"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="4:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="17"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-    </row>
-    <row r="27" spans="4:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="6" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="13"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+    </row>
+    <row r="27" spans="4:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="6" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="17"/>
-      <c r="N27" s="27"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-    </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D28" s="6" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="13"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+    </row>
+    <row r="28" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="6" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="17"/>
-      <c r="N28" s="27"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-    </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D29" s="6" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="13"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="6" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="17"/>
-      <c r="N29" s="27"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-    </row>
-    <row r="30" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="17"/>
-      <c r="N30" s="27"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-    </row>
-    <row r="31" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="17"/>
-      <c r="N31" s="27"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-    </row>
-    <row r="32" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="25"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="13"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="24"/>
+    </row>
+    <row r="30" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="13"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
+    </row>
+    <row r="31" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="13"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="24"/>
+    </row>
+    <row r="32" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="13"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-    </row>
-    <row r="33" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D33" s="6" t="s">
+      <c r="K32" s="16"/>
+      <c r="L32" s="13"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
+    </row>
+    <row r="33" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-    </row>
-    <row r="34" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="25"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="13"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="24"/>
+    </row>
+    <row r="34" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="13"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-    </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="25"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="13"/>
+      <c r="P34" s="22"/>
+      <c r="Q34"/>
+    </row>
+    <row r="35" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-    </row>
-    <row r="36" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="25"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-    </row>
-    <row r="37" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="25"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="27"/>
-    </row>
-    <row r="38" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="25"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="27"/>
-    </row>
-    <row r="39" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="6"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="M39" s="27"/>
-    </row>
-    <row r="40" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D40" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="6"/>
+    </row>
+    <row r="40" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D40" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="27"/>
-    </row>
-    <row r="41" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D41" s="44" t="s">
+      <c r="I40" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+    </row>
+    <row r="41" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D41" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-    </row>
-    <row r="43" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2264,10 +2189,10 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-    </row>
-    <row r="44" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2275,10 +2200,10 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-    </row>
-    <row r="45" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2286,10 +2211,10 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-    </row>
-    <row r="46" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2300,99 +2225,80 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D47" s="7"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H53" s="6"/>
+    <row r="47" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D47" s="6"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="4:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="4:12" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="4:12" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="4:12" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="4:12" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="4:12" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H54" s="6"/>
+    <row r="54" spans="4:12" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="27"/>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H55" s="6"/>
-      <c r="I55" s="35"/>
+    </row>
+    <row r="55" spans="4:12" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="H55" s="2"/>
+      <c r="I55" s="26"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="28"/>
+      <c r="K55" s="21"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="27"/>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="M58" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2409,25 +2315,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2442,7 +2348,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2450,772 +2356,772 @@
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="37"/>
+      <c r="F2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="37"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="38">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="12">
         <v>2022</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="13" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="H10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="23"/>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="18"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="17"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="24"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="17"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="24"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="17"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="24"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="17"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="24"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="17"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="24"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="17"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="17"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="6" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="17"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="6" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="17"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="17"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="17"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="17"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="17"/>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="17"/>
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="17"/>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="17"/>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="17"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="23"/>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="27"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="14"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="25"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="27"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="16"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="25"/>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="13"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="16"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="23"/>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="27"/>
-    </row>
-    <row r="31" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="18"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="25"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="13"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="27"/>
-    </row>
-    <row r="32" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="16"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="25"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="13"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="27"/>
-    </row>
-    <row r="33" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="16"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="6" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="25"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="13"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="27"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="16"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="6" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="25"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="13"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="27"/>
-    </row>
-    <row r="35" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="16"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="6" t="s">
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="25"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="27"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K35" s="16"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="25"/>
+      <c r="D36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="27"/>
-    </row>
-    <row r="37" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K36" s="16"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="25"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="27"/>
-    </row>
-    <row r="38" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="16"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="27"/>
-    </row>
-    <row r="39" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="25"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="27"/>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K39" s="16"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="25"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="27"/>
-    </row>
-    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K40" s="16"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="25"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K41" s="16"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="13"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="27"/>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K42" s="16"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="25"/>
+      <c r="I43" s="13"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="27"/>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K43" s="16"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="6"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="27"/>
-    </row>
-    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L44" s="13"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="6"/>
+      <c r="D45" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="27"/>
-    </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I45" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
       <c r="G46" s="1"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="27"/>
-    </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3226,11 +3132,11 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3241,11 +3147,11 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3256,11 +3162,11 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3271,11 +3177,11 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3290,52 +3196,52 @@
       <c r="L51" s="2"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3343,14 +3249,14 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3358,11 +3264,11 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
       <c r="M56" s="1"/>
     </row>
   </sheetData>
